--- a/02.crawler/12.1AAuto/2.url.xlsx
+++ b/02.crawler/12.1AAuto/2.url.xlsx
@@ -5651,7 +5651,7 @@
   <dimension ref="A1:D1401"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
